--- a/mosip_master/xlsx/template_file_format.xlsx
+++ b/mosip_master/xlsx/template_file_format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\E2E master db backups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pramod.b\IdeaProjects\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6146F3C-304B-4514-8D53-CDFD969E3925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48098A28-87EA-4905-9D6A-175CA9734B67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template_file_format" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="18">
   <si>
     <t>txt</t>
   </si>
@@ -31,15 +31,6 @@
     <t>eng</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
     <t>xml</t>
   </si>
   <si>
@@ -71,12 +62,24 @@
   </si>
   <si>
     <t>tam</t>
+  </si>
+  <si>
+    <t>lang_code</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>descr</t>
+  </si>
+  <si>
+    <t>is_active</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,7 +397,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -509,6 +512,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -554,9 +572,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -911,564 +930,388 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="F2" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>3</v>
       </c>
-      <c r="E4" t="s">
+      <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>12</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B20" t="s">
         <v>6</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
         <v>12</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="B23" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="C25" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C24" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1">
-        <v>45055.596412083331</v>
-      </c>
-      <c r="I24" t="s">
-        <v>5</v>
-      </c>
+      <c r="D25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
